--- a/doc/画面一覧.xlsx
+++ b/doc/画面一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z.work\個人\OyakoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C160B6-3D64-4B01-9650-689EAA2F2773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA773A8-394F-41BE-97E9-DD185C08A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -38,10 +38,6 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>webモック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -85,23 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板画面</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コミュニティ画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバム画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -143,14 +122,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進捗</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>コミュニティTOP画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板TOP画面</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッド画面</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板スレッド作成画面</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティワーク画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティMY画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ検索画面</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ作成画面</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティスレッド作成画面</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティワーク作成画面</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面(自分)</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面(他人)</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -158,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +255,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,17 +281,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,144 +623,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" ht="39.75" customHeight="1" thickTop="1">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" ht="39.75" customHeight="1">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/画面一覧.xlsx
+++ b/doc/画面一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z.work\個人\OyakoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA773A8-394F-41BE-97E9-DD185C08A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC3CD0F-4AC7-4224-BAA5-A8E50059954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,10 +142,7 @@
   <si>
     <t>掲示板スレッド画面</t>
     <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
+      <t>ケイジバンガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,10 +152,7 @@
       <t>ケイジバン</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
+      <t>サクセイガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
